--- a/7RMart/src/main/resources/TestData.xlsx
+++ b/7RMart/src/main/resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\git\Selenium-Obsqura\7RMart\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a42a1d2ab42543e7/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0A6458-09CF-45DE-95C9-680CCBC38250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D8602930-9BE1-4792-A85F-AE259B7271E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B14650-DF4C-460C-9471-9499BF727156}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="852" windowWidth="8532" windowHeight="8964" xr2:uid="{6A92C6FE-FBB7-441D-941F-BC9CAF72A006}"/>
+    <workbookView xWindow="7080" yWindow="3468" windowWidth="8532" windowHeight="8964" activeTab="1" xr2:uid="{6A92C6FE-FBB7-441D-941F-BC9CAF72A006}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUsersAdd" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -48,13 +49,19 @@
     <t>asdh</t>
   </si>
   <si>
+    <t>adminAVF</t>
+  </si>
+  <si>
     <t>aradhya</t>
   </si>
   <si>
-    <t>adminAVF</t>
-  </si>
-  <si>
     <t>adminASDD</t>
+  </si>
+  <si>
+    <t>Parthip</t>
+  </si>
+  <si>
+    <t>Parthip2</t>
   </si>
 </sst>
 </file>
@@ -408,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C843DE6-5624-4889-84F9-609B30C4C871}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,15 +454,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E9739-AFD4-46F1-A740-DE23CFA6D707}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/7RMart/src/main/resources/TestData.xlsx
+++ b/7RMart/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a42a1d2ab42543e7/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D8602930-9BE1-4792-A85F-AE259B7271E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B14650-DF4C-460C-9471-9499BF727156}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D8602930-9BE1-4792-A85F-AE259B7271E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61423DC4-7DA2-433D-922F-0422BA38DAB0}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="3468" windowWidth="8532" windowHeight="8964" activeTab="1" xr2:uid="{6A92C6FE-FBB7-441D-941F-BC9CAF72A006}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="8532" windowHeight="8964" activeTab="1" xr2:uid="{6A92C6FE-FBB7-441D-941F-BC9CAF72A006}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -61,17 +61,29 @@
     <t>Parthip</t>
   </si>
   <si>
-    <t>Parthip2</t>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Parthip3</t>
+  </si>
+  <si>
+    <t>Usertype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,23 +484,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E9739-AFD4-46F1-A740-DE23CFA6D707}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>